--- a/test 2022.xlsx
+++ b/test 2022.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauricem\Dropbox\USA\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauricem\projects\starter-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CB0222831B9FF90DBA98E93B642A874D1275A4CE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Route 2022" sheetId="14" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dagen!$A$1:$J$88</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="279">
   <si>
     <t>Page</t>
   </si>
@@ -876,12 +875,15 @@
   </si>
   <si>
     <t>Dit is 5 uur voor vertrek</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -1428,7 +1430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1438,17 +1440,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.14453125" customWidth="1"/>
-    <col min="3" max="3" width="25.15234375" customWidth="1"/>
-    <col min="4" max="4" width="36.859375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9296875" customWidth="1"/>
-    <col min="6" max="6" width="56.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6015625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>60</v>
       </c>
@@ -1459,7 +1461,7 @@
       <c r="F1" s="33"/>
       <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1482,7 @@
       </c>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -1502,7 +1504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1568,7 +1570,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1616,7 +1618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1662,7 +1664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -1708,7 +1710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -1842,7 +1844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1958,7 +1960,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>23</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>24</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>25</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>26</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>27</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>28</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -2140,16 +2142,16 @@
       </c>
       <c r="G31" s="23"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="14"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="14"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
     </row>
   </sheetData>
@@ -2159,461 +2161,461 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.8359375" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" customWidth="1"/>
-    <col min="3" max="3" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.55078125" customWidth="1"/>
-    <col min="11" max="11" width="31.87890625" customWidth="1"/>
-    <col min="12" max="12" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -2621,12 +2623,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -2634,14 +2636,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>267</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A43" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2649,24 +2651,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.73828125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="18.29296875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="67.26171875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="128.3359375" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9.14453125" style="25"/>
+    <col min="1" max="1" width="15.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="128.28515625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>153</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="str">
         <f t="shared" ref="A2:A8" si="0">TEXT(B2,"ddd")</f>
         <v>vr</v>
@@ -2697,7 +2699,7 @@
       <c r="D2" s="40"/>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="str">
         <f t="shared" si="0"/>
         <v>vr</v>
@@ -2714,7 +2716,7 @@
       <c r="E3" s="28"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="str">
         <f t="shared" ref="A4" si="1">TEXT(B4,"ddd")</f>
         <v>vr</v>
@@ -2731,7 +2733,7 @@
       <c r="E4" s="28"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>vr</v>
@@ -2750,7 +2752,7 @@
       </c>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>vr</v>
@@ -2770,7 +2772,7 @@
       <c r="F6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>vr</v>
@@ -2790,7 +2792,7 @@
       <c r="F7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>vr</v>
@@ -2807,7 +2809,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="str">
         <f t="shared" ref="A9:A10" si="2">TEXT(B9,"ddd")</f>
         <v>za</v>
@@ -2822,7 +2824,7 @@
       <c r="E9" s="49"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="str">
         <f t="shared" si="2"/>
         <v>za</v>
@@ -2839,7 +2841,7 @@
       <c r="E10" s="28"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="str">
         <f t="shared" ref="A11" si="3">TEXT(B11,"ddd")</f>
         <v>za</v>
@@ -2856,7 +2858,7 @@
       <c r="E11" s="28"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
         <f t="shared" ref="A12:A17" si="4">TEXT(B12,"ddd")</f>
         <v>za</v>
@@ -2872,7 +2874,7 @@
       </c>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="str">
         <f t="shared" si="4"/>
         <v>za</v>
@@ -2888,7 +2890,7 @@
       </c>
       <c r="E13" s="28"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="str">
         <f t="shared" si="4"/>
         <v>za</v>
@@ -2904,7 +2906,7 @@
       </c>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="str">
         <f t="shared" ref="A15:A16" si="5">TEXT(B15,"ddd")</f>
         <v>za</v>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="str">
         <f t="shared" si="5"/>
         <v>za</v>
@@ -2938,7 +2940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="str">
         <f t="shared" si="4"/>
         <v>za</v>
@@ -2954,7 +2956,7 @@
       </c>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="40" t="str">
         <f t="shared" ref="A18:A19" si="6">TEXT(B18,"ddd")</f>
         <v>zo</v>
@@ -2968,7 +2970,7 @@
       <c r="D18" s="40"/>
       <c r="E18" s="49"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="str">
         <f t="shared" si="6"/>
         <v>zo</v>
@@ -2984,7 +2986,7 @@
       </c>
       <c r="E19" s="28"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="str">
         <f t="shared" ref="A20:A24" si="7">TEXT(B20,"ddd")</f>
         <v>zo</v>
@@ -3002,7 +3004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="str">
         <f t="shared" si="7"/>
         <v>zo</v>
@@ -3020,7 +3022,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="str">
         <f t="shared" ref="A22" si="8">TEXT(B22,"ddd")</f>
         <v>zo</v>
@@ -3038,7 +3040,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="str">
         <f t="shared" si="7"/>
         <v>zo</v>
@@ -3056,7 +3058,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="str">
         <f t="shared" si="7"/>
         <v>zo</v>
@@ -3072,7 +3074,7 @@
       </c>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="str">
         <f t="shared" ref="A25:A27" si="9">TEXT(B25,"ddd")</f>
         <v>zo</v>
@@ -3088,7 +3090,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="str">
         <f t="shared" si="9"/>
         <v>zo</v>
@@ -3104,7 +3106,7 @@
       </c>
       <c r="E26" s="28"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="str">
         <f t="shared" si="9"/>
         <v>zo</v>
@@ -3120,7 +3122,7 @@
       </c>
       <c r="E27" s="28"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="40" t="str">
         <f t="shared" ref="A28:A29" si="10">TEXT(B28,"ddd")</f>
         <v>ma</v>
@@ -3134,7 +3136,7 @@
       <c r="D28" s="40"/>
       <c r="E28" s="49"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="str">
         <f t="shared" si="10"/>
         <v>ma</v>
@@ -3150,7 +3152,7 @@
       </c>
       <c r="E29" s="28"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="str">
         <f t="shared" ref="A30" si="11">TEXT(B30,"ddd")</f>
         <v>ma</v>
@@ -3168,7 +3170,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="str">
         <f t="shared" ref="A31" si="12">TEXT(B31,"ddd")</f>
         <v>ma</v>
@@ -3183,7 +3185,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40" t="str">
         <f t="shared" ref="A32" si="13">TEXT(B32,"ddd")</f>
         <v>di</v>
@@ -3197,7 +3199,7 @@
       <c r="D32" s="40"/>
       <c r="E32" s="49"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="str">
         <f t="shared" ref="A33:A42" si="14">TEXT(B33,"ddd")</f>
         <v>di</v>
@@ -3213,7 +3215,7 @@
       </c>
       <c r="E33" s="28"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>136</v>
       </c>
@@ -3228,7 +3230,7 @@
       </c>
       <c r="E34" s="28"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3246,7 +3248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3262,7 +3264,7 @@
       </c>
       <c r="E36" s="28"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3280,7 +3282,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3296,7 +3298,7 @@
       </c>
       <c r="E38" s="28"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3311,7 +3313,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="str">
         <f t="shared" si="14"/>
         <v>di</v>
@@ -3326,7 +3328,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40" t="str">
         <f t="shared" si="14"/>
         <v>wo</v>
@@ -3340,7 +3342,7 @@
       <c r="D41" s="40"/>
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="str">
         <f t="shared" si="14"/>
         <v>wo</v>
@@ -3355,7 +3357,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="str">
         <f t="shared" ref="A43:A44" si="15">TEXT(B43,"ddd")</f>
         <v>wo</v>
@@ -3370,7 +3372,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="str">
         <f t="shared" si="15"/>
         <v>wo</v>
@@ -3385,7 +3387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="str">
         <f t="shared" ref="A45:A59" si="16">TEXT(B45,"ddd")</f>
         <v>do</v>
@@ -3399,7 +3401,7 @@
       <c r="D45" s="46"/>
       <c r="E45" s="46"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3414,7 +3416,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3432,7 +3434,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3447,7 +3449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3465,7 +3467,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3480,7 +3482,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="str">
         <f t="shared" si="16"/>
         <v>do</v>
@@ -3495,7 +3497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40" t="str">
         <f t="shared" si="16"/>
         <v>vr</v>
@@ -3510,7 +3512,7 @@
       <c r="E52" s="40"/>
       <c r="J52" s="44"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="str">
         <f t="shared" ref="A53:A54" si="17">TEXT(B53,"ddd")</f>
         <v>vr</v>
@@ -3525,7 +3527,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="str">
         <f t="shared" si="17"/>
         <v>vr</v>
@@ -3540,7 +3542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="str">
         <f t="shared" si="16"/>
         <v>vr</v>
@@ -3556,7 +3558,7 @@
       </c>
       <c r="J55" s="39"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="str">
         <f t="shared" si="16"/>
         <v>vr</v>
@@ -3575,7 +3577,7 @@
       </c>
       <c r="J56" s="39"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="str">
         <f t="shared" ref="A57" si="18">TEXT(B57,"ddd")</f>
         <v>vr</v>
@@ -3591,7 +3593,7 @@
       </c>
       <c r="J57" s="39"/>
     </row>
-    <row r="58" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40" t="str">
         <f t="shared" si="16"/>
         <v>za</v>
@@ -3605,7 +3607,7 @@
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="str">
         <f t="shared" si="16"/>
         <v>za</v>
@@ -3621,7 +3623,7 @@
       </c>
       <c r="J59" s="39"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="str">
         <f t="shared" ref="A60:A61" si="19">TEXT(B60,"ddd")</f>
         <v>za</v>
@@ -3636,7 +3638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="str">
         <f t="shared" si="19"/>
         <v>za</v>
@@ -3651,7 +3653,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="str">
         <f t="shared" ref="A62:A64" si="20">TEXT(B62,"ddd")</f>
         <v>za</v>
@@ -3669,7 +3671,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="str">
         <f t="shared" si="20"/>
         <v>zo</v>
@@ -3683,7 +3685,7 @@
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="str">
         <f t="shared" si="20"/>
         <v>zo</v>
@@ -3701,7 +3703,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="str">
         <f t="shared" ref="A65:A73" si="21">TEXT(B65,"ddd")</f>
         <v>zo</v>
@@ -3719,7 +3721,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="str">
         <f t="shared" si="21"/>
         <v>zo</v>
@@ -3737,7 +3739,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="str">
         <f t="shared" si="21"/>
         <v>zo</v>
@@ -3752,7 +3754,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="40" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
@@ -3766,7 +3768,7 @@
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
@@ -3781,7 +3783,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
@@ -3796,7 +3798,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="str">
         <f t="shared" ref="A71" si="22">TEXT(B71,"ddd")</f>
         <v>ma</v>
@@ -3811,7 +3813,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
@@ -3823,7 +3825,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="str">
         <f t="shared" si="21"/>
         <v>ma</v>
@@ -3838,7 +3840,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="40" t="str">
         <f t="shared" ref="A74:A77" si="23">TEXT(B74,"ddd")</f>
         <v>di</v>
@@ -3852,7 +3854,7 @@
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
     </row>
-    <row r="75" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="str">
         <f t="shared" si="23"/>
         <v>di</v>
@@ -3867,7 +3869,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="str">
         <f t="shared" ref="A76:A78" si="24">TEXT(B76,"ddd")</f>
         <v>di</v>
@@ -3882,7 +3884,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="str">
         <f t="shared" si="23"/>
         <v>di</v>
@@ -3897,7 +3899,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="str">
         <f t="shared" si="24"/>
         <v>di</v>
@@ -3912,7 +3914,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="40" t="str">
         <f t="shared" ref="A79:A80" si="25">TEXT(B79,"ddd")</f>
         <v>wo</v>
@@ -3926,7 +3928,7 @@
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="str">
         <f t="shared" si="25"/>
         <v>wo</v>
@@ -3941,7 +3943,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="str">
         <f t="shared" ref="A81:A99" si="26">TEXT(B81,"ddd")</f>
         <v>wo</v>
@@ -3957,7 +3959,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="str">
         <f t="shared" si="26"/>
         <v>wo</v>
@@ -3975,7 +3977,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="str">
         <f t="shared" si="26"/>
         <v>wo</v>
@@ -3990,7 +3992,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="str">
         <f t="shared" si="26"/>
         <v>wo</v>
@@ -4008,7 +4010,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="40" t="str">
         <f t="shared" si="26"/>
         <v>do</v>
@@ -4022,7 +4024,7 @@
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="str">
         <f t="shared" si="26"/>
         <v>do</v>
@@ -4040,7 +4042,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="str">
         <f t="shared" si="26"/>
         <v>do</v>
@@ -4058,7 +4060,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="str">
         <f t="shared" si="26"/>
         <v>do</v>
@@ -4073,7 +4075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="str">
         <f t="shared" si="26"/>
         <v>vr</v>
@@ -4087,7 +4089,7 @@
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="str">
         <f t="shared" si="26"/>
         <v>vr</v>
@@ -4102,7 +4104,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="str">
         <f t="shared" si="26"/>
         <v>vr</v>
@@ -4120,7 +4122,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="str">
         <f t="shared" si="26"/>
         <v>vr</v>
@@ -4138,7 +4140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="40" t="str">
         <f t="shared" si="26"/>
         <v>za</v>
@@ -4152,7 +4154,7 @@
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="str">
         <f t="shared" si="26"/>
         <v>za</v>
@@ -4167,7 +4169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="str">
         <f t="shared" si="26"/>
         <v>za</v>
@@ -4182,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="str">
         <f t="shared" si="26"/>
         <v>zo</v>
@@ -4196,7 +4198,7 @@
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="str">
         <f t="shared" si="26"/>
         <v>zo</v>
@@ -4214,7 +4216,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="str">
         <f t="shared" si="26"/>
         <v>zo</v>
@@ -4232,7 +4234,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="str">
         <f t="shared" si="26"/>
         <v>zo</v>
@@ -4250,7 +4252,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="str">
         <f t="shared" ref="A100:A103" si="27">TEXT(B100,"ddd")</f>
         <v>ma</v>
@@ -4264,7 +4266,7 @@
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="str">
         <f t="shared" si="27"/>
         <v>ma</v>
@@ -4279,7 +4281,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="str">
         <f t="shared" ref="A102" si="28">TEXT(B102,"ddd")</f>
         <v>ma</v>
@@ -4297,7 +4299,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="str">
         <f t="shared" si="27"/>
         <v>ma</v>
@@ -4312,7 +4314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="40" t="str">
         <f t="shared" ref="A104:A111" si="29">TEXT(B104,"ddd")</f>
         <v>di</v>
@@ -4326,7 +4328,7 @@
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="str">
         <f t="shared" si="29"/>
         <v>di</v>
@@ -4341,7 +4343,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>136</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="str">
         <f t="shared" si="29"/>
         <v>di</v>
@@ -4370,7 +4372,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="40" t="str">
         <f t="shared" si="29"/>
         <v>wo</v>
@@ -4384,7 +4386,7 @@
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="str">
         <f t="shared" si="29"/>
         <v>wo</v>
@@ -4399,7 +4401,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="str">
         <f t="shared" si="29"/>
         <v>wo</v>
@@ -4417,7 +4419,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="str">
         <f t="shared" si="29"/>
         <v>wo</v>
@@ -4435,7 +4437,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="40" t="str">
         <f t="shared" ref="A112:A115" si="30">TEXT(B112,"ddd")</f>
         <v>do</v>
@@ -4449,7 +4451,7 @@
       <c r="D112" s="40"/>
       <c r="E112" s="40"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="str">
         <f t="shared" si="30"/>
         <v>do</v>
@@ -4464,7 +4466,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="str">
         <f t="shared" si="30"/>
         <v>do</v>
@@ -4482,7 +4484,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="str">
         <f t="shared" si="30"/>
         <v>do</v>
@@ -4497,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="40" t="str">
         <f t="shared" ref="A116:A121" si="31">TEXT(B116,"ddd")</f>
         <v>vr</v>
@@ -4511,7 +4513,7 @@
       <c r="D116" s="40"/>
       <c r="E116" s="40"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="str">
         <f t="shared" si="31"/>
         <v>vr</v>
@@ -4526,7 +4528,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="str">
         <f t="shared" si="31"/>
         <v>vr</v>
@@ -4544,7 +4546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="str">
         <f t="shared" si="31"/>
         <v>vr</v>
@@ -4559,7 +4561,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="str">
         <f t="shared" si="31"/>
         <v>vr</v>
@@ -4577,7 +4579,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="str">
         <f t="shared" si="31"/>
         <v>vr</v>
@@ -4595,7 +4597,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="40" t="str">
         <f t="shared" ref="A122:A125" si="32">TEXT(B122,"ddd")</f>
         <v>za</v>
@@ -4609,7 +4611,7 @@
       <c r="D122" s="40"/>
       <c r="E122" s="40"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="str">
         <f t="shared" si="32"/>
         <v>za</v>
@@ -4627,7 +4629,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="str">
         <f t="shared" si="32"/>
         <v>za</v>
@@ -4642,7 +4644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="str">
         <f t="shared" si="32"/>
         <v>za</v>
@@ -4660,7 +4662,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="40" t="str">
         <f t="shared" ref="A126:A131" si="33">TEXT(B126,"ddd")</f>
         <v>zo</v>
@@ -4674,7 +4676,7 @@
       <c r="D126" s="40"/>
       <c r="E126" s="40"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="str">
         <f t="shared" si="33"/>
         <v>zo</v>
@@ -4689,7 +4691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="str">
         <f t="shared" si="33"/>
         <v>zo</v>
@@ -4707,7 +4709,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="str">
         <f t="shared" si="33"/>
         <v>zo</v>
@@ -4722,7 +4724,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="str">
         <f t="shared" si="33"/>
         <v>zo</v>
@@ -4736,8 +4738,11 @@
       <c r="D130" s="37" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="25" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="str">
         <f t="shared" si="33"/>
         <v>zo</v>
@@ -4755,7 +4760,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="40" t="str">
         <f t="shared" ref="A132:A137" si="34">TEXT(B132,"ddd")</f>
         <v>ma</v>
@@ -4769,7 +4774,7 @@
       <c r="D132" s="40"/>
       <c r="E132" s="40"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="str">
         <f t="shared" si="34"/>
         <v>ma</v>
@@ -4784,7 +4789,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="str">
         <f t="shared" si="34"/>
         <v>ma</v>
@@ -4799,7 +4804,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="str">
         <f t="shared" si="34"/>
         <v>ma</v>
@@ -4814,7 +4819,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="str">
         <f t="shared" si="34"/>
         <v>ma</v>
@@ -4832,7 +4837,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="str">
         <f t="shared" si="34"/>
         <v>ma</v>
@@ -4847,7 +4852,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="40" t="str">
         <f t="shared" ref="A138:A143" si="35">TEXT(B138,"ddd")</f>
         <v>di</v>
@@ -4861,7 +4866,7 @@
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="str">
         <f t="shared" si="35"/>
         <v>di</v>
@@ -4879,7 +4884,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="str">
         <f t="shared" si="35"/>
         <v>di</v>
@@ -4897,7 +4902,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="str">
         <f t="shared" si="35"/>
         <v>di</v>
@@ -4912,7 +4917,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="str">
         <f t="shared" si="35"/>
         <v>di</v>
@@ -4927,7 +4932,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="str">
         <f t="shared" si="35"/>
         <v>di</v>
@@ -4942,7 +4947,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="40" t="str">
         <f t="shared" ref="A144:A147" si="36">TEXT(B144,"ddd")</f>
         <v>wo</v>
@@ -4956,7 +4961,7 @@
       <c r="D144" s="40"/>
       <c r="E144" s="40"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="str">
         <f t="shared" si="36"/>
         <v>wo</v>
@@ -4971,7 +4976,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="str">
         <f t="shared" si="36"/>
         <v>wo</v>
@@ -4986,7 +4991,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="str">
         <f t="shared" si="36"/>
         <v>wo</v>
@@ -5001,7 +5006,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="str">
         <f t="shared" ref="A148:A151" si="37">TEXT(B148,"ddd")</f>
         <v>do</v>
@@ -5015,7 +5020,7 @@
       <c r="D148" s="40"/>
       <c r="E148" s="40"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="str">
         <f t="shared" si="37"/>
         <v>do</v>
@@ -5030,7 +5035,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="str">
         <f t="shared" si="37"/>
         <v>do</v>
@@ -5045,7 +5050,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="str">
         <f t="shared" si="37"/>
         <v>do</v>
@@ -5060,7 +5065,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="40" t="str">
         <f t="shared" ref="A152:A157" si="38">TEXT(B152,"ddd")</f>
         <v>vr</v>
@@ -5074,7 +5079,7 @@
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="str">
         <f t="shared" si="38"/>
         <v>vr</v>
@@ -5089,7 +5094,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="str">
         <f t="shared" si="38"/>
         <v>vr</v>
@@ -5104,7 +5109,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="str">
         <f t="shared" si="38"/>
         <v>vr</v>
@@ -5119,7 +5124,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="str">
         <f t="shared" si="38"/>
         <v>vr</v>
@@ -5137,7 +5142,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="str">
         <f t="shared" si="38"/>
         <v>vr</v>
@@ -5155,7 +5160,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="40" t="str">
         <f t="shared" ref="A158:A160" si="39">TEXT(B158,"ddd")</f>
         <v>za</v>
@@ -5169,7 +5174,7 @@
       <c r="D158" s="40"/>
       <c r="E158" s="40"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="str">
         <f t="shared" si="39"/>
         <v>za</v>
@@ -5184,7 +5189,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="str">
         <f t="shared" si="39"/>
         <v>za</v>
@@ -5199,12 +5204,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E98" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E98" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -5212,23 +5217,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.98828125" customWidth="1"/>
-    <col min="3" max="3" width="39.68359375" customWidth="1"/>
-    <col min="4" max="4" width="31.609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>88</v>
       </c>
@@ -5246,7 +5251,7 @@
       </c>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>44764</v>
       </c>
@@ -5264,7 +5269,7 @@
       </c>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>44767</v>
       </c>
@@ -5282,7 +5287,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>44771</v>
       </c>
@@ -5300,7 +5305,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>44778</v>
       </c>
@@ -5318,7 +5323,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>44785</v>
       </c>
@@ -5336,7 +5341,7 @@
       </c>
       <c r="F6" s="25"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>44785</v>
       </c>
